--- a/migforecasting/underground/test-6.xlsx
+++ b/migforecasting/underground/test-6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="This year" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>test size 20%</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>Random Forest-100 (citiesdataset-NYDcor-2.csv) - next year</t>
+  </si>
+  <si>
+    <t>train (MSE)</t>
+  </si>
+  <si>
+    <t>test (MSE)</t>
+  </si>
+  <si>
+    <t>Random Forest-100 (citiesdataset-NYDCor-2.csv) - next year</t>
   </si>
 </sst>
 </file>
@@ -100,13 +109,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -389,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I57"/>
+  <dimension ref="B2:R57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,17 +413,27 @@
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -420,8 +442,16 @@
         <v>6</v>
       </c>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -436,8 +466,22 @@
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -456,8 +500,26 @@
       <c r="I5" s="3">
         <v>3.5432661579713409</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1.013085827523356E-3</v>
+      </c>
+      <c r="N5" s="4">
+        <v>6.2268010500454137E-3</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>9.2782693771926853E-4</v>
+      </c>
+      <c r="R5" s="4">
+        <v>7.4456010906704777E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <f>B5+1</f>
         <v>2</v>
@@ -478,8 +540,28 @@
       <c r="I6" s="3">
         <v>1.6553196766231371</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L6" s="2">
+        <f>L5+1</f>
+        <v>2</v>
+      </c>
+      <c r="M6" s="4">
+        <v>9.8539768789859816E-4</v>
+      </c>
+      <c r="N6" s="4">
+        <v>6.5728308702069907E-3</v>
+      </c>
+      <c r="P6" s="2">
+        <f>P5+1</f>
+        <v>2</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>9.7669092535360874E-4</v>
+      </c>
+      <c r="R6" s="4">
+        <v>6.4287108033408806E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <f t="shared" ref="B7:B54" si="0">B6+1</f>
         <v>3</v>
@@ -500,8 +582,28 @@
       <c r="I7" s="3">
         <v>2.1155896273788382</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L7" s="2">
+        <f t="shared" ref="L7:L54" si="2">L6+1</f>
+        <v>3</v>
+      </c>
+      <c r="M7" s="4">
+        <v>9.5335974122521812E-4</v>
+      </c>
+      <c r="N7" s="4">
+        <v>6.3554550599499377E-3</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" ref="P7:P54" si="3">P6+1</f>
+        <v>3</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>8.3292902858249167E-4</v>
+      </c>
+      <c r="R7" s="4">
+        <v>8.3401381509059652E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -522,8 +624,28 @@
       <c r="I8" s="3">
         <v>1.8419052732889429</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L8" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M8" s="4">
+        <v>9.1390821757087013E-4</v>
+      </c>
+      <c r="N8" s="4">
+        <v>7.9624002265776626E-3</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>9.2014789436484885E-4</v>
+      </c>
+      <c r="R8" s="4">
+        <v>6.7284020664887872E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -544,8 +666,28 @@
       <c r="I9" s="3">
         <v>5.573067371713047</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L9" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M9" s="4">
+        <v>9.4198645068787094E-4</v>
+      </c>
+      <c r="N9" s="4">
+        <v>6.7944047127115976E-3</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1.024203187397551E-3</v>
+      </c>
+      <c r="R9" s="4">
+        <v>4.8706672985798947E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -566,8 +708,28 @@
       <c r="I10" s="3">
         <v>3.60676027582829</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L10" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1.0135185365982599E-3</v>
+      </c>
+      <c r="N10" s="4">
+        <v>5.9307700667210247E-3</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>9.1429275878093168E-4</v>
+      </c>
+      <c r="R10" s="4">
+        <v>7.0963806581679232E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -588,8 +750,28 @@
       <c r="I11" s="3">
         <v>3.7556516496954759</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L11" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1.054928242181041E-3</v>
+      </c>
+      <c r="N11" s="4">
+        <v>7.3031036110552082E-3</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>9.0853039940785266E-4</v>
+      </c>
+      <c r="R11" s="4">
+        <v>6.2821065073317322E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -610,8 +792,28 @@
       <c r="I12" s="3">
         <v>2.198788874400373</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L12" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="M12" s="4">
+        <v>9.1190356350166074E-4</v>
+      </c>
+      <c r="N12" s="4">
+        <v>8.6909295505204019E-3</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>9.8614330292833962E-4</v>
+      </c>
+      <c r="R12" s="4">
+        <v>6.0693554092539591E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -632,8 +834,28 @@
       <c r="I13" s="3">
         <v>5.0082831379908388</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L13" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1.0868609561306181E-3</v>
+      </c>
+      <c r="N13" s="4">
+        <v>7.2514108898818373E-3</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>9.6385088445594298E-4</v>
+      </c>
+      <c r="R13" s="4">
+        <v>5.1824056453252648E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -654,8 +876,28 @@
       <c r="I14" s="3">
         <v>4.1990072526147566</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L14" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1.0383804216176459E-3</v>
+      </c>
+      <c r="N14" s="4">
+        <v>8.0603002062559961E-3</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>9.4568001951987645E-4</v>
+      </c>
+      <c r="R14" s="4">
+        <v>6.0509054619209924E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -676,8 +918,28 @@
       <c r="I15" s="3">
         <v>1.9103241815590071</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L15" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1.042170323885502E-3</v>
+      </c>
+      <c r="N15" s="4">
+        <v>6.3420219760140922E-3</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>9.1043045654642582E-4</v>
+      </c>
+      <c r="R15" s="4">
+        <v>6.4182455433808711E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -698,8 +960,28 @@
       <c r="I16" s="3">
         <v>3.3111812338344748</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L16" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="M16" s="4">
+        <v>9.736020238673178E-4</v>
+      </c>
+      <c r="N16" s="4">
+        <v>7.6592536774492482E-3</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>9.2156286343361325E-4</v>
+      </c>
+      <c r="R16" s="4">
+        <v>6.5812898544779404E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -720,8 +1002,28 @@
       <c r="I17" s="3">
         <v>2.452224599354444</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L17" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="M17" s="4">
+        <v>9.6840793726269618E-4</v>
+      </c>
+      <c r="N17" s="4">
+        <v>6.2434578566265397E-3</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>8.9859020429974054E-4</v>
+      </c>
+      <c r="R17" s="4">
+        <v>6.7538255888006269E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -742,8 +1044,28 @@
       <c r="I18" s="3">
         <v>3.872937309278182</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L18" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1.024440045088604E-3</v>
+      </c>
+      <c r="N18" s="4">
+        <v>6.8315247577138017E-3</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>9.2868146419403043E-4</v>
+      </c>
+      <c r="R18" s="4">
+        <v>7.7483937891313142E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -764,8 +1086,28 @@
       <c r="I19" s="3">
         <v>2.4009267921299822</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L19" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="M19" s="4">
+        <v>9.0353773394216729E-4</v>
+      </c>
+      <c r="N19" s="4">
+        <v>8.7416040955835186E-3</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>8.8140729833040407E-4</v>
+      </c>
+      <c r="R19" s="4">
+        <v>6.5942327828680076E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -786,8 +1128,28 @@
       <c r="I20" s="3">
         <v>2.10691297935458</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L20" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="M20" s="4">
+        <v>9.7267949454570566E-4</v>
+      </c>
+      <c r="N20" s="4">
+        <v>6.9524699203163424E-3</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>9.6698191436237824E-4</v>
+      </c>
+      <c r="R20" s="4">
+        <v>6.7255155392929346E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -808,8 +1170,28 @@
       <c r="I21" s="3">
         <v>2.1714765892492922</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L21" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="M21" s="4">
+        <v>9.8195871864625232E-4</v>
+      </c>
+      <c r="N21" s="4">
+        <v>7.7056930333614469E-3</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>9.4260885795258696E-4</v>
+      </c>
+      <c r="R21" s="4">
+        <v>5.1189678753029806E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -830,8 +1212,28 @@
       <c r="I22" s="3">
         <v>4.6031939015048229</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L22" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="M22" s="4">
+        <v>9.7631543547486695E-4</v>
+      </c>
+      <c r="N22" s="4">
+        <v>8.5493900953070336E-3</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>9.477685169473946E-4</v>
+      </c>
+      <c r="R22" s="4">
+        <v>5.3796954279437953E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -852,8 +1254,28 @@
       <c r="I23" s="3">
         <v>2.540622802624517</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L23" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1.0160647673682359E-3</v>
+      </c>
+      <c r="N23" s="4">
+        <v>7.1763676874099774E-3</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>9.1269067669933835E-4</v>
+      </c>
+      <c r="R23" s="4">
+        <v>6.3851591652298607E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -874,8 +1296,28 @@
       <c r="I24" s="3">
         <v>2.1749661798806761</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L24" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1.0382817095630869E-3</v>
+      </c>
+      <c r="N24" s="4">
+        <v>5.5001399646620024E-3</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>9.258629991388802E-4</v>
+      </c>
+      <c r="R24" s="4">
+        <v>6.4743543351801014E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -896,8 +1338,28 @@
       <c r="I25" s="3">
         <v>2.6121312633757499</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L25" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1.011974450943903E-3</v>
+      </c>
+      <c r="N25" s="4">
+        <v>6.7467672624581358E-3</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>9.5619688271728889E-4</v>
+      </c>
+      <c r="R25" s="4">
+        <v>5.5360916209526417E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -918,8 +1380,28 @@
       <c r="I26" s="3">
         <v>1.9687777234509709</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L26" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="M26" s="4">
+        <v>9.6415076467777649E-4</v>
+      </c>
+      <c r="N26" s="4">
+        <v>7.2278735852431379E-3</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>9.2594755224886143E-4</v>
+      </c>
+      <c r="R26" s="4">
+        <v>6.1565018393133254E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -940,8 +1422,28 @@
       <c r="I27" s="3">
         <v>5.7814289039128894</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L27" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="M27" s="4">
+        <v>9.9041297018905385E-4</v>
+      </c>
+      <c r="N27" s="4">
+        <v>7.9435936492211045E-3</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>9.100966165375453E-4</v>
+      </c>
+      <c r="R27" s="4">
+        <v>6.9612827810649428E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -962,8 +1464,28 @@
       <c r="I28" s="3">
         <v>2.1321642809913799</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L28" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="M28" s="4">
+        <v>9.816581621878808E-4</v>
+      </c>
+      <c r="N28" s="4">
+        <v>8.2143450718355198E-3</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>1.0049581263010881E-3</v>
+      </c>
+      <c r="R28" s="4">
+        <v>5.4965965858551303E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -984,8 +1506,28 @@
       <c r="I29" s="3">
         <v>3.9865880593345611</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L29" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="M29" s="4">
+        <v>9.2242532159643963E-4</v>
+      </c>
+      <c r="N29" s="4">
+        <v>8.4375463890980999E-3</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>8.9695096154903016E-4</v>
+      </c>
+      <c r="R29" s="4">
+        <v>6.9720673775854397E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1006,8 +1548,28 @@
       <c r="I30" s="3">
         <v>2.9232237710702509</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L30" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="M30" s="4">
+        <v>1.01827583772471E-3</v>
+      </c>
+      <c r="N30" s="4">
+        <v>5.7097610577010911E-3</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>8.8400873760446008E-4</v>
+      </c>
+      <c r="R30" s="4">
+        <v>8.2958166378902989E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1028,8 +1590,28 @@
       <c r="I31" s="3">
         <v>2.7409929396708441</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L31" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="M31" s="4">
+        <v>9.1864188536904695E-4</v>
+      </c>
+      <c r="N31" s="4">
+        <v>8.9369669707329256E-3</v>
+      </c>
+      <c r="P31" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>9.0128958056342242E-4</v>
+      </c>
+      <c r="R31" s="4">
+        <v>7.1706374914660732E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1050,8 +1632,28 @@
       <c r="I32" s="3">
         <v>2.4391384279289681</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L32" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="M32" s="4">
+        <v>9.8827571807509574E-4</v>
+      </c>
+      <c r="N32" s="4">
+        <v>6.5673917624169548E-3</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>9.0912040693944126E-4</v>
+      </c>
+      <c r="R32" s="4">
+        <v>5.8064167310642777E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1072,8 +1674,28 @@
       <c r="I33" s="3">
         <v>2.861873332753218</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L33" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="M33" s="4">
+        <v>1.0247039646527861E-3</v>
+      </c>
+      <c r="N33" s="4">
+        <v>6.2156745739569219E-3</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>1.023442241876263E-3</v>
+      </c>
+      <c r="R33" s="4">
+        <v>5.9907821679922174E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1094,8 +1716,28 @@
       <c r="I34" s="3">
         <v>3.497345406234774</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L34" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="M34" s="4">
+        <v>9.5200134645965844E-4</v>
+      </c>
+      <c r="N34" s="4">
+        <v>8.5972047083823309E-3</v>
+      </c>
+      <c r="P34" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>8.5309648114304806E-4</v>
+      </c>
+      <c r="R34" s="4">
+        <v>6.7834253073832387E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1116,8 +1758,28 @@
       <c r="I35" s="3">
         <v>3.476646928916391</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L35" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="M35" s="4">
+        <v>1.0212771106477389E-3</v>
+      </c>
+      <c r="N35" s="4">
+        <v>6.8171397796977281E-3</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>1.0193762250413571E-3</v>
+      </c>
+      <c r="R35" s="4">
+        <v>5.2984692532484874E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1138,8 +1800,28 @@
       <c r="I36" s="3">
         <v>3.8852311872188379</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L36" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="M36" s="4">
+        <v>1.015342969167982E-3</v>
+      </c>
+      <c r="N36" s="4">
+        <v>6.9901495431443162E-3</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>9.0432664910439112E-4</v>
+      </c>
+      <c r="R36" s="4">
+        <v>7.0568925162746302E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1160,8 +1842,28 @@
       <c r="I37" s="3">
         <v>2.3044283718511021</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L37" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="M37" s="4">
+        <v>9.513584783942846E-4</v>
+      </c>
+      <c r="N37" s="4">
+        <v>7.9663353051049827E-3</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>1.0051419302351801E-3</v>
+      </c>
+      <c r="R37" s="4">
+        <v>5.0788481511067751E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1182,8 +1884,28 @@
       <c r="I38" s="3">
         <v>3.1963966671924249</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L38" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="M38" s="4">
+        <v>1.025617873239869E-3</v>
+      </c>
+      <c r="N38" s="4">
+        <v>6.264748830408195E-3</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>1.0192120170008749E-3</v>
+      </c>
+      <c r="R38" s="4">
+        <v>4.2855002135541798E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1204,8 +1926,28 @@
       <c r="I39" s="3">
         <v>2.1243590428042118</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L39" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="M39" s="4">
+        <v>9.925371209103021E-4</v>
+      </c>
+      <c r="N39" s="4">
+        <v>6.5273722566650972E-3</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>9.2208933522913738E-4</v>
+      </c>
+      <c r="R39" s="4">
+        <v>5.7291648913626574E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1226,8 +1968,28 @@
       <c r="I40" s="3">
         <v>3.973886272962079</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L40" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="M40" s="4">
+        <v>1.059908756782055E-3</v>
+      </c>
+      <c r="N40" s="4">
+        <v>5.384225609539852E-3</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>9.3217466591216278E-4</v>
+      </c>
+      <c r="R40" s="4">
+        <v>7.3628738334350656E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1248,8 +2010,28 @@
       <c r="I41" s="3">
         <v>1.763774123109292</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L41" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="M41" s="4">
+        <v>1.1172713287304189E-3</v>
+      </c>
+      <c r="N41" s="4">
+        <v>4.3307280351393314E-3</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>9.0407840970345627E-4</v>
+      </c>
+      <c r="R41" s="4">
+        <v>7.7768923523061934E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1270,8 +2052,28 @@
       <c r="I42" s="3">
         <v>1.607635936917327</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L42" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="M42" s="4">
+        <v>1.0535201591685959E-3</v>
+      </c>
+      <c r="N42" s="4">
+        <v>4.5205288914244076E-3</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>9.5436819020081032E-4</v>
+      </c>
+      <c r="R42" s="4">
+        <v>5.8898190330647091E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1292,8 +2094,28 @@
       <c r="I43" s="3">
         <v>4.6067292499580299</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L43" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="M43" s="4">
+        <v>1.010441202621126E-3</v>
+      </c>
+      <c r="N43" s="4">
+        <v>7.4373979664921347E-3</v>
+      </c>
+      <c r="P43" s="2">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>9.3836815697840421E-4</v>
+      </c>
+      <c r="R43" s="4">
+        <v>6.6703860002955209E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1314,8 +2136,28 @@
       <c r="I44" s="3">
         <v>1.912586448192825</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L44" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="M44" s="4">
+        <v>1.021124613625878E-3</v>
+      </c>
+      <c r="N44" s="4">
+        <v>6.6629896323738436E-3</v>
+      </c>
+      <c r="P44" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>9.7553804657307924E-4</v>
+      </c>
+      <c r="R44" s="4">
+        <v>5.8993855345631924E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1336,8 +2178,28 @@
       <c r="I45" s="3">
         <v>4.0388595978819</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L45" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="M45" s="4">
+        <v>1.007094934808405E-3</v>
+      </c>
+      <c r="N45" s="4">
+        <v>8.0528603869514399E-3</v>
+      </c>
+      <c r="P45" s="2">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>9.0317000385979715E-4</v>
+      </c>
+      <c r="R45" s="4">
+        <v>7.8804752263929145E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1358,8 +2220,28 @@
       <c r="I46" s="3">
         <v>1.857645069496014</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L46" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="M46" s="4">
+        <v>1.0534909372745349E-3</v>
+      </c>
+      <c r="N46" s="4">
+        <v>5.8756095398985993E-3</v>
+      </c>
+      <c r="P46" s="2">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>9.3899192033260962E-4</v>
+      </c>
+      <c r="R46" s="4">
+        <v>7.5755984248804297E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1380,8 +2262,28 @@
       <c r="I47" s="3">
         <v>2.083155141558402</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L47" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="M47" s="4">
+        <v>1.0717001967831389E-3</v>
+      </c>
+      <c r="N47" s="4">
+        <v>5.5038196439941064E-3</v>
+      </c>
+      <c r="P47" s="2">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>8.9660596251005514E-4</v>
+      </c>
+      <c r="R47" s="4">
+        <v>7.4475466774189224E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1402,8 +2304,28 @@
       <c r="I48" s="3">
         <v>3.8456210246204479</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L48" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="M48" s="4">
+        <v>1.0591806725203409E-3</v>
+      </c>
+      <c r="N48" s="4">
+        <v>8.0326823801951802E-3</v>
+      </c>
+      <c r="P48" s="2">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>9.332544949627611E-4</v>
+      </c>
+      <c r="R48" s="4">
+        <v>5.5164065201718671E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1424,8 +2346,28 @@
       <c r="I49" s="3">
         <v>3.387307121771447</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L49" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="M49" s="4">
+        <v>1.0684027923422009E-3</v>
+      </c>
+      <c r="N49" s="4">
+        <v>5.7819971764029431E-3</v>
+      </c>
+      <c r="P49" s="2">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>8.9297855997397539E-4</v>
+      </c>
+      <c r="R49" s="4">
+        <v>7.9149877342538956E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1446,8 +2388,28 @@
       <c r="I50" s="3">
         <v>2.396865011401057</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L50" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="M50" s="4">
+        <v>1.0601146796860039E-3</v>
+      </c>
+      <c r="N50" s="4">
+        <v>5.09572975543259E-3</v>
+      </c>
+      <c r="P50" s="2">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>9.5206427351085781E-4</v>
+      </c>
+      <c r="R50" s="4">
+        <v>5.239649765037083E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1468,8 +2430,28 @@
       <c r="I51" s="3">
         <v>2.1905858003159149</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L51" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="M51" s="4">
+        <v>9.4906139811896841E-4</v>
+      </c>
+      <c r="N51" s="4">
+        <v>9.4331900362294979E-3</v>
+      </c>
+      <c r="P51" s="2">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>9.2519791373159061E-4</v>
+      </c>
+      <c r="R51" s="4">
+        <v>5.1244136787218604E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1490,8 +2472,28 @@
       <c r="I52" s="3">
         <v>2.8283842755409179</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L52" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="M52" s="4">
+        <v>1.037938633774873E-3</v>
+      </c>
+      <c r="N52" s="4">
+        <v>6.2021717878173689E-3</v>
+      </c>
+      <c r="P52" s="2">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>9.2016083846492146E-4</v>
+      </c>
+      <c r="R52" s="4">
+        <v>6.3130335886868953E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1512,8 +2514,28 @@
       <c r="I53" s="3">
         <v>2.2947409760433439</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L53" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="M53" s="4">
+        <v>9.9630812210754782E-4</v>
+      </c>
+      <c r="N53" s="4">
+        <v>6.8303953047330109E-3</v>
+      </c>
+      <c r="P53" s="2">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>9.2929885570699491E-4</v>
+      </c>
+      <c r="R53" s="4">
+        <v>6.5689869800932546E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1534,8 +2556,28 @@
       <c r="I54" s="3">
         <v>2.2103531412295001</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L54" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="M54" s="4">
+        <v>9.6961163016913855E-4</v>
+      </c>
+      <c r="N54" s="4">
+        <v>6.8137215906569817E-3</v>
+      </c>
+      <c r="P54" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>9.4848740831921094E-4</v>
+      </c>
+      <c r="R54" s="4">
+        <v>6.0143025932583964E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>4</v>
       </c>
@@ -1558,8 +2600,30 @@
         <f>AVERAGE(I5:I54)</f>
         <v>2.9594252272796018</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M56" s="4">
+        <f>AVERAGE(M5:M54)</f>
+        <v>1.0024922373465866E-3</v>
+      </c>
+      <c r="N56" s="4">
+        <f>AVERAGE(N5:N54)</f>
+        <v>6.9594249558343558E-3</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q56" s="4">
+        <f>AVERAGE(Q5:Q54)</f>
+        <v>9.3433744070495108E-4</v>
+      </c>
+      <c r="R56" s="4">
+        <f>AVERAGE(R5:R54)</f>
+        <v>6.4097520900457759E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
@@ -1582,18 +2646,41 @@
         <f>_xlfn.STDEV.S(I5:I54)</f>
         <v>1.0452752652201971</v>
       </c>
+      <c r="L57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="4">
+        <f>_xlfn.STDEV.S(M5:M54)</f>
+        <v>4.8856915124108979E-5</v>
+      </c>
+      <c r="N57" s="4">
+        <f>_xlfn.STDEV.S(N5:N54)</f>
+        <v>1.1578653245263436E-3</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="4">
+        <f>_xlfn.STDEV.S(Q5:Q54)</f>
+        <v>4.2054007790966928E-5</v>
+      </c>
+      <c r="R57" s="4">
+        <f>_xlfn.STDEV.S(R5:R54)</f>
+        <v>9.4829231983438152E-4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:O58"/>
+  <dimension ref="C3:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,19 +2690,26 @@
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
     <col min="14" max="14" width="16.28515625" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="N3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1624,10 +2718,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="R4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>2</v>
@@ -1643,10 +2743,21 @@
         <v>3</v>
       </c>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="N5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -1665,11 +2776,26 @@
       <c r="J6" s="3">
         <v>2.534589466599134</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1.023008870566378E-3</v>
+      </c>
+      <c r="O6" s="4">
+        <v>7.5501603434605302E-3</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4">
+        <v>8.7742245939014343E-4</v>
+      </c>
+      <c r="T6" s="4">
+        <v>7.188589138175625E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f>C6+1</f>
         <v>2</v>
@@ -1690,11 +2816,28 @@
       <c r="J7" s="3">
         <v>3.8717290109914111</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M7" s="2">
+        <f>M6+1</f>
+        <v>2</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1.020703916741483E-3</v>
+      </c>
+      <c r="O7" s="4">
+        <v>6.6763750131848213E-3</v>
+      </c>
+      <c r="R7" s="2">
+        <f>R6+1</f>
+        <v>2</v>
+      </c>
+      <c r="S7" s="4">
+        <v>8.8626751662067413E-4</v>
+      </c>
+      <c r="T7" s="4">
+        <v>7.7804257062983216E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" ref="C8:C55" si="0">C7+1</f>
         <v>3</v>
@@ -1715,11 +2858,28 @@
       <c r="J8" s="3">
         <v>2.4320641418167752</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M8" s="2">
+        <f t="shared" ref="M8:M55" si="2">M7+1</f>
+        <v>3</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1.2127576516307019E-3</v>
+      </c>
+      <c r="O8" s="4">
+        <v>5.0065427583634633E-3</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" ref="R8:R55" si="3">R7+1</f>
+        <v>3</v>
+      </c>
+      <c r="S8" s="4">
+        <v>9.8553951911681844E-4</v>
+      </c>
+      <c r="T8" s="4">
+        <v>6.6696856910028607E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1740,11 +2900,28 @@
       <c r="J9" s="3">
         <v>1.65228743857628</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M9" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1.106634992444286E-3</v>
+      </c>
+      <c r="O9" s="4">
+        <v>6.7566688576596694E-3</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S9" s="4">
+        <v>1.0069007059111091E-3</v>
+      </c>
+      <c r="T9" s="4">
+        <v>5.9363055879915576E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1765,11 +2942,28 @@
       <c r="J10" s="3">
         <v>1.997264608298988</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M10" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1.0906496489375449E-3</v>
+      </c>
+      <c r="O10" s="4">
+        <v>9.9665182427689774E-3</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S10" s="4">
+        <v>1.015114297728251E-3</v>
+      </c>
+      <c r="T10" s="4">
+        <v>5.3224483331998909E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1790,11 +2984,28 @@
       <c r="J11" s="3">
         <v>2.813446038721751</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M11" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1.2109815002982641E-3</v>
+      </c>
+      <c r="O11" s="4">
+        <v>5.7429044926173038E-3</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S11" s="4">
+        <v>9.3811594180343537E-4</v>
+      </c>
+      <c r="T11" s="4">
+        <v>6.2013696772142551E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1815,11 +3026,28 @@
       <c r="J12" s="3">
         <v>5.2241167210126269</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M12" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1.0192185451629459E-3</v>
+      </c>
+      <c r="O12" s="4">
+        <v>8.3481488627201155E-3</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="S12" s="4">
+        <v>1.0483487391734301E-3</v>
+      </c>
+      <c r="T12" s="4">
+        <v>5.6543061741757593E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1840,11 +3068,28 @@
       <c r="J13" s="3">
         <v>2.2567646198259892</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M13" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1.142495189253393E-3</v>
+      </c>
+      <c r="O13" s="4">
+        <v>5.3364467227014533E-3</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="S13" s="4">
+        <v>9.7530361515677899E-4</v>
+      </c>
+      <c r="T13" s="4">
+        <v>5.2400764157673483E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1865,11 +3110,28 @@
       <c r="J14" s="3">
         <v>1.948776433375683</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M14" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="4">
+        <v>9.8891451835541873E-4</v>
+      </c>
+      <c r="O14" s="4">
+        <v>8.0716813006097288E-3</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="S14" s="4">
+        <v>9.030419053081101E-4</v>
+      </c>
+      <c r="T14" s="4">
+        <v>6.171111497584196E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1890,11 +3152,28 @@
       <c r="J15" s="3">
         <v>3.3737580642769731</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M15" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1.0501968174051639E-3</v>
+      </c>
+      <c r="O15" s="4">
+        <v>7.8942924851063238E-3</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="S15" s="4">
+        <v>9.0986863160304686E-4</v>
+      </c>
+      <c r="T15" s="4">
+        <v>7.4878625358643144E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1915,11 +3194,28 @@
       <c r="J16" s="3">
         <v>2.7977481277526639</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M16" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N16" s="4">
+        <v>9.878504705635859E-4</v>
+      </c>
+      <c r="O16" s="4">
+        <v>9.3625881507863017E-3</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="S16" s="4">
+        <v>9.8912710516836774E-4</v>
+      </c>
+      <c r="T16" s="4">
+        <v>6.3463839251047677E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1940,11 +3236,28 @@
       <c r="J17" s="3">
         <v>1.480103361718093</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M17" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1.12427586980546E-3</v>
+      </c>
+      <c r="O17" s="4">
+        <v>6.4536056266429904E-3</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="S17" s="4">
+        <v>9.2018952543571541E-4</v>
+      </c>
+      <c r="T17" s="4">
+        <v>6.0561760994672104E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1965,11 +3278,28 @@
       <c r="J18" s="3">
         <v>3.7334420388914071</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M18" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1.097509087966598E-3</v>
+      </c>
+      <c r="O18" s="4">
+        <v>7.6512916431128748E-3</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="S18" s="4">
+        <v>8.6212585567184657E-4</v>
+      </c>
+      <c r="T18" s="4">
+        <v>8.9994365285987581E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1990,11 +3320,28 @@
       <c r="J19" s="3">
         <v>6.3327467396862582</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M19" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1.0953852170337969E-3</v>
+      </c>
+      <c r="O19" s="4">
+        <v>6.3415335503064912E-3</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="S19" s="4">
+        <v>9.6635821020795245E-4</v>
+      </c>
+      <c r="T19" s="4">
+        <v>6.2915048880807451E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2015,11 +3362,28 @@
       <c r="J20" s="3">
         <v>2.571428610347879</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M20" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1.161812422554954E-3</v>
+      </c>
+      <c r="O20" s="4">
+        <v>6.3376063257669663E-3</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="S20" s="4">
+        <v>8.577292305799501E-4</v>
+      </c>
+      <c r="T20" s="4">
+        <v>7.6209223236169401E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2040,11 +3404,28 @@
       <c r="J21" s="3">
         <v>2.2108561029630911</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M21" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1.124710860826373E-3</v>
+      </c>
+      <c r="O21" s="4">
+        <v>7.3928926636812617E-3</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1.014636844299811E-3</v>
+      </c>
+      <c r="T21" s="4">
+        <v>5.2901226478457297E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2065,11 +3446,28 @@
       <c r="J22" s="3">
         <v>2.7804890537577212</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M22" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1.001050784470643E-3</v>
+      </c>
+      <c r="O22" s="4">
+        <v>8.9044289524919263E-3</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="S22" s="4">
+        <v>9.5019500740391139E-4</v>
+      </c>
+      <c r="T22" s="4">
+        <v>7.5334594583586524E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2090,11 +3488,28 @@
       <c r="J23" s="3">
         <v>2.11925066200887</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M23" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1.1195954665375689E-3</v>
+      </c>
+      <c r="O23" s="4">
+        <v>5.9657486411643723E-3</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="S23" s="4">
+        <v>8.935894190550852E-4</v>
+      </c>
+      <c r="T23" s="4">
+        <v>8.506565276954637E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2115,11 +3530,28 @@
       <c r="J24" s="3">
         <v>2.1043538825387049</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M24" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1.0598035147682679E-3</v>
+      </c>
+      <c r="O24" s="4">
+        <v>6.4368799418191239E-3</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="S24" s="4">
+        <v>9.286902620599894E-4</v>
+      </c>
+      <c r="T24" s="4">
+        <v>6.0298183763753312E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2140,11 +3572,28 @@
       <c r="J25" s="3">
         <v>5.6465084014257867</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M25" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N25" s="4">
+        <v>1.0411758827760891E-3</v>
+      </c>
+      <c r="O25" s="4">
+        <v>8.6357324903530881E-3</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="S25" s="4">
+        <v>1.002263700865042E-3</v>
+      </c>
+      <c r="T25" s="4">
+        <v>5.0803260495208332E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2165,11 +3614,28 @@
       <c r="J26" s="3">
         <v>1.3694348315207829</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M26" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="N26" s="4">
+        <v>9.8658582845205099E-4</v>
+      </c>
+      <c r="O26" s="4">
+        <v>8.3818180212210346E-3</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="S26" s="4">
+        <v>9.9320357031358131E-4</v>
+      </c>
+      <c r="T26" s="4">
+        <v>5.5998643233791251E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2190,11 +3656,28 @@
       <c r="J27" s="3">
         <v>1.559334511660559</v>
       </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M27" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1.012524051138219E-3</v>
+      </c>
+      <c r="O27" s="4">
+        <v>7.9884337632850719E-3</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="S27" s="4">
+        <v>8.3582973310522112E-4</v>
+      </c>
+      <c r="T27" s="4">
+        <v>8.2932104694559815E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2215,11 +3698,28 @@
       <c r="J28" s="3">
         <v>3.7770639509158479</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M28" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="N28" s="4">
+        <v>1.0017116374379639E-3</v>
+      </c>
+      <c r="O28" s="4">
+        <v>8.2115232833544858E-3</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="S28" s="4">
+        <v>9.3857567488479972E-4</v>
+      </c>
+      <c r="T28" s="4">
+        <v>6.1029082484710092E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2240,11 +3740,28 @@
       <c r="J29" s="3">
         <v>2.6966246231460742</v>
       </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M29" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1.055985383945365E-3</v>
+      </c>
+      <c r="O29" s="4">
+        <v>7.1842512562157561E-3</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="S29" s="4">
+        <v>8.1146621399992894E-4</v>
+      </c>
+      <c r="T29" s="4">
+        <v>8.4186838127129366E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2265,11 +3782,28 @@
       <c r="J30" s="3">
         <v>4.2864762575775162</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M30" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N30" s="4">
+        <v>1.1401271665869969E-3</v>
+      </c>
+      <c r="O30" s="4">
+        <v>6.2075759964765618E-3</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="S30" s="4">
+        <v>9.5512352400406843E-4</v>
+      </c>
+      <c r="T30" s="4">
+        <v>5.786722620280035E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2290,11 +3824,28 @@
       <c r="J31" s="3">
         <v>3.65054028124983</v>
       </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M31" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N31" s="4">
+        <v>1.0216257378764921E-3</v>
+      </c>
+      <c r="O31" s="4">
+        <v>8.508336326286425E-3</v>
+      </c>
+      <c r="R31" s="2">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="S31" s="4">
+        <v>9.7997521567937942E-4</v>
+      </c>
+      <c r="T31" s="4">
+        <v>6.1600098031003641E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2315,11 +3866,28 @@
       <c r="J32" s="3">
         <v>1.8891759032430391</v>
       </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M32" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1.0930560756584971E-3</v>
+      </c>
+      <c r="O32" s="4">
+        <v>7.687017138089414E-3</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="S32" s="4">
+        <v>1.001635272102828E-3</v>
+      </c>
+      <c r="T32" s="4">
+        <v>4.8678109014426048E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2340,11 +3908,28 @@
       <c r="J33" s="3">
         <v>1.7680411003514549</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M33" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N33" s="4">
+        <v>1.0260844350645009E-3</v>
+      </c>
+      <c r="O33" s="4">
+        <v>8.6072344083386043E-3</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="S33" s="4">
+        <v>8.2314766478615103E-4</v>
+      </c>
+      <c r="T33" s="4">
+        <v>8.6795527881503628E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2365,11 +3950,28 @@
       <c r="J34" s="3">
         <v>1.7082747301897181</v>
       </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M34" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1.1144466290647749E-3</v>
+      </c>
+      <c r="O34" s="4">
+        <v>8.0474019910984056E-3</v>
+      </c>
+      <c r="R34" s="2">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="S34" s="4">
+        <v>9.336706781554638E-4</v>
+      </c>
+      <c r="T34" s="4">
+        <v>6.9626263424849731E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2390,11 +3992,28 @@
       <c r="J35" s="3">
         <v>3.779403112854046</v>
       </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M35" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="N35" s="4">
+        <v>9.936383501702728E-4</v>
+      </c>
+      <c r="O35" s="4">
+        <v>1.024834513140689E-2</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="S35" s="4">
+        <v>9.1011291461606835E-4</v>
+      </c>
+      <c r="T35" s="4">
+        <v>6.7285088227413839E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2415,11 +4034,28 @@
       <c r="J36" s="3">
         <v>2.6351346564086371</v>
       </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M36" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="N36" s="4">
+        <v>1.0855274653086551E-3</v>
+      </c>
+      <c r="O36" s="4">
+        <v>7.1301140517925996E-3</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="S36" s="4">
+        <v>8.1074599880565947E-4</v>
+      </c>
+      <c r="T36" s="4">
+        <v>9.0523471196903935E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2440,11 +4076,28 @@
       <c r="J37" s="3">
         <v>5.3115445730120321</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M37" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="N37" s="4">
+        <v>1.1879727171853901E-3</v>
+      </c>
+      <c r="O37" s="4">
+        <v>5.914670880609256E-3</v>
+      </c>
+      <c r="R37" s="2">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="S37" s="4">
+        <v>9.1672048736384263E-4</v>
+      </c>
+      <c r="T37" s="4">
+        <v>6.5415938521332347E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2465,11 +4118,28 @@
       <c r="J38" s="3">
         <v>6.9538123893344528</v>
       </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M38" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="N38" s="4">
+        <v>1.1609762858610681E-3</v>
+      </c>
+      <c r="O38" s="4">
+        <v>6.7098630477883444E-3</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="S38" s="4">
+        <v>9.072863394795535E-4</v>
+      </c>
+      <c r="T38" s="4">
+        <v>5.7799626823036698E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2490,11 +4160,28 @@
       <c r="J39" s="3">
         <v>4.1422800376206466</v>
       </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M39" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="N39" s="4">
+        <v>1.159479896626026E-3</v>
+      </c>
+      <c r="O39" s="4">
+        <v>6.6728757313961728E-3</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="S39" s="4">
+        <v>9.8651771087184502E-4</v>
+      </c>
+      <c r="T39" s="4">
+        <v>5.9014324690931513E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2515,11 +4202,28 @@
       <c r="J40" s="3">
         <v>1.972499294813659</v>
       </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M40" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="N40" s="4">
+        <v>1.002997257081997E-3</v>
+      </c>
+      <c r="O40" s="4">
+        <v>8.6281455707725909E-3</v>
+      </c>
+      <c r="R40" s="2">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="S40" s="4">
+        <v>1.0016429363417761E-3</v>
+      </c>
+      <c r="T40" s="4">
+        <v>5.8335498489534296E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2540,11 +4244,28 @@
       <c r="J41" s="3">
         <v>5.8407203310252127</v>
       </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M41" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="N41" s="4">
+        <v>1.0470690472762869E-3</v>
+      </c>
+      <c r="O41" s="4">
+        <v>7.1234478741607132E-3</v>
+      </c>
+      <c r="R41" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="S41" s="4">
+        <v>9.5230706994644219E-4</v>
+      </c>
+      <c r="T41" s="4">
+        <v>5.5849324632483684E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2565,11 +4286,28 @@
       <c r="J42" s="3">
         <v>4.5541691567851093</v>
       </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M42" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="N42" s="4">
+        <v>1.0773368284772409E-3</v>
+      </c>
+      <c r="O42" s="4">
+        <v>7.2382544522271259E-3</v>
+      </c>
+      <c r="R42" s="2">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="S42" s="4">
+        <v>9.4450074480771195E-4</v>
+      </c>
+      <c r="T42" s="4">
+        <v>6.2323185860425484E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2590,11 +4328,28 @@
       <c r="J43" s="3">
         <v>2.7345387012468869</v>
       </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M43" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="N43" s="4">
+        <v>1.0448016778139039E-3</v>
+      </c>
+      <c r="O43" s="4">
+        <v>8.0529423703571915E-3</v>
+      </c>
+      <c r="R43" s="2">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="S43" s="4">
+        <v>9.2785801151460106E-4</v>
+      </c>
+      <c r="T43" s="4">
+        <v>6.7075424077752289E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2615,11 +4370,28 @@
       <c r="J44" s="3">
         <v>2.3336872145110661</v>
       </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M44" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N44" s="4">
+        <v>1.091714400527405E-3</v>
+      </c>
+      <c r="O44" s="4">
+        <v>8.1061063331197714E-3</v>
+      </c>
+      <c r="R44" s="2">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="S44" s="4">
+        <v>8.9667949130764566E-4</v>
+      </c>
+      <c r="T44" s="4">
+        <v>7.1315742231869549E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2640,11 +4412,28 @@
       <c r="J45" s="3">
         <v>2.5937131778801121</v>
       </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M45" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="N45" s="4">
+        <v>1.2130680433595001E-3</v>
+      </c>
+      <c r="O45" s="4">
+        <v>5.921461554093059E-3</v>
+      </c>
+      <c r="R45" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="S45" s="4">
+        <v>9.1867475060971866E-4</v>
+      </c>
+      <c r="T45" s="4">
+        <v>5.5406755471045623E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2665,11 +4454,28 @@
       <c r="J46" s="3">
         <v>2.211884747582106</v>
       </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M46" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N46" s="4">
+        <v>1.055255053496274E-3</v>
+      </c>
+      <c r="O46" s="4">
+        <v>9.1881531496315078E-3</v>
+      </c>
+      <c r="R46" s="2">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="S46" s="4">
+        <v>9.361534431908704E-4</v>
+      </c>
+      <c r="T46" s="4">
+        <v>6.4664016640704116E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2690,11 +4496,28 @@
       <c r="J47" s="3">
         <v>2.4030392378688048</v>
       </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M47" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="N47" s="4">
+        <v>9.9899776204922229E-4</v>
+      </c>
+      <c r="O47" s="4">
+        <v>8.8932414776916845E-3</v>
+      </c>
+      <c r="R47" s="2">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="S47" s="4">
+        <v>9.8115948382572634E-4</v>
+      </c>
+      <c r="T47" s="4">
+        <v>4.7833651908405208E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2715,11 +4538,28 @@
       <c r="J48" s="3">
         <v>2.5639192093282541</v>
       </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M48" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="N48" s="4">
+        <v>1.138612982495097E-3</v>
+      </c>
+      <c r="O48" s="4">
+        <v>7.0162752751955614E-3</v>
+      </c>
+      <c r="R48" s="2">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="S48" s="4">
+        <v>9.2694722544806095E-4</v>
+      </c>
+      <c r="T48" s="4">
+        <v>7.3723734744607361E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2740,11 +4580,28 @@
       <c r="J49" s="3">
         <v>2.05243385714313</v>
       </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M49" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="N49" s="4">
+        <v>1.1770247445456749E-3</v>
+      </c>
+      <c r="O49" s="4">
+        <v>7.0712628754067619E-3</v>
+      </c>
+      <c r="R49" s="2">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="S49" s="4">
+        <v>9.047395685412758E-4</v>
+      </c>
+      <c r="T49" s="4">
+        <v>8.3334529929859191E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2765,11 +4622,28 @@
       <c r="J50" s="3">
         <v>3.019399725902856</v>
       </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M50" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="N50" s="4">
+        <v>9.9486076965896631E-4</v>
+      </c>
+      <c r="O50" s="4">
+        <v>8.8642250505152516E-3</v>
+      </c>
+      <c r="R50" s="2">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="S50" s="4">
+        <v>8.4821580569688186E-4</v>
+      </c>
+      <c r="T50" s="4">
+        <v>8.5423827329833488E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2790,11 +4664,28 @@
       <c r="J51" s="3">
         <v>2.5291996817392262</v>
       </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M51" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="N51" s="4">
+        <v>1.072065916895568E-3</v>
+      </c>
+      <c r="O51" s="4">
+        <v>7.0309636870137986E-3</v>
+      </c>
+      <c r="R51" s="2">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="S51" s="4">
+        <v>8.2962895204774685E-4</v>
+      </c>
+      <c r="T51" s="4">
+        <v>8.553913185071366E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2815,11 +4706,28 @@
       <c r="J52" s="3">
         <v>3.1630189966586739</v>
       </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M52" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="N52" s="4">
+        <v>1.1006888596933361E-3</v>
+      </c>
+      <c r="O52" s="4">
+        <v>9.700707067971685E-3</v>
+      </c>
+      <c r="R52" s="2">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="S52" s="4">
+        <v>9.4682167375904479E-4</v>
+      </c>
+      <c r="T52" s="4">
+        <v>6.0856000631264243E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2840,11 +4748,28 @@
       <c r="J53" s="3">
         <v>7.3273077816451302</v>
       </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M53" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="N53" s="4">
+        <v>9.736378014581639E-4</v>
+      </c>
+      <c r="O53" s="4">
+        <v>9.6193919159711268E-3</v>
+      </c>
+      <c r="R53" s="2">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="S53" s="4">
+        <v>9.4830178496339607E-4</v>
+      </c>
+      <c r="T53" s="4">
+        <v>6.5573749879574636E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2865,11 +4790,28 @@
       <c r="J54" s="3">
         <v>4.5142099336072334</v>
       </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M54" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="N54" s="4">
+        <v>1.056813922245533E-3</v>
+      </c>
+      <c r="O54" s="4">
+        <v>8.7301867168625719E-3</v>
+      </c>
+      <c r="R54" s="2">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="S54" s="4">
+        <v>9.5355879439791937E-4</v>
+      </c>
+      <c r="T54" s="4">
+        <v>6.8350337523916133E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2890,11 +4832,28 @@
       <c r="J55" s="3">
         <v>2.8156010955713091</v>
       </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M55" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N55" s="4">
+        <v>1.1182375049442321E-3</v>
+      </c>
+      <c r="O55" s="4">
+        <v>6.9220057040234326E-3</v>
+      </c>
+      <c r="R55" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="S55" s="4">
+        <v>8.2288159641706192E-4</v>
+      </c>
+      <c r="T55" s="4">
+        <v>7.7414058846469657E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>4</v>
       </c>
@@ -2917,11 +4876,30 @@
         <f>AVERAGE(J6:J55)</f>
         <v>3.1607641325395899</v>
       </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="4">
+        <f>AVERAGE(N6:N55)</f>
+        <v>1.077633109209872E-3</v>
+      </c>
+      <c r="O57" s="4">
+        <f>AVERAGE(O6:O55)</f>
+        <v>7.6087655833538114E-3</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="4">
+        <f>AVERAGE(S6:S55)</f>
+        <v>9.2949821647087471E-4</v>
+      </c>
+      <c r="T57" s="4">
+        <f>AVERAGE(T6:T55)</f>
+        <v>6.6916805518296551E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
         <v>5</v>
       </c>
@@ -2944,9 +4922,28 @@
         <f>_xlfn.STDEV.S(J6:J55)</f>
         <v>1.4538950153238464</v>
       </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
+      <c r="M58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="4">
+        <f>_xlfn.STDEV.S(N6:N55)</f>
+        <v>6.6815035879646696E-5</v>
+      </c>
+      <c r="O58" s="4">
+        <f>_xlfn.STDEV.S(O6:O55)</f>
+        <v>1.2491065004611994E-3</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="4">
+        <f>_xlfn.STDEV.S(S6:S55)</f>
+        <v>5.924810376209636E-5</v>
+      </c>
+      <c r="T58" s="4">
+        <f>_xlfn.STDEV.S(T6:T55)</f>
+        <v>1.157187663638646E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/migforecasting/underground/test-6.xlsx
+++ b/migforecasting/underground/test-6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="This year" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
   <si>
     <t>test size 20%</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>Random Forest-100 (citiesdataset-NYDCor-2.csv) - next year</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Без доллара</t>
+  </si>
+  <si>
+    <t>С долларом</t>
   </si>
 </sst>
 </file>
@@ -136,6 +148,4312 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400"/>
+              <a:t>Прогноз текущего года (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>MAPE)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Обучающая выборка (сред.)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'This year'!$G$63:$H$63</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Без доллара</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>С долларом</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'This year'!$G$64:$H$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.1689923572027021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1540535729331971</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88D3-48D1-9141-1091E17CEF0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Тестовая выборка (сред.)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'This year'!$G$63:$H$63</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Без доллара</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>С долларом</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'This year'!$G$65:$H$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.9724080693133152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9594252272796018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-88D3-48D1-9141-1091E17CEF0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="976238063"/>
+        <c:axId val="976236815"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="976238063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="976236815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="976236815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="976238063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400"/>
+              <a:t>Прогноз текущего года</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t> (MSE)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'This year'!$O$63:$P$63</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Без доллара</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>С долларом</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'This year'!$O$64:$P$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0024922373465866E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3433744070495108E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0E9-4341-8ACA-FEBEF9C6D33B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'This year'!$O$63:$P$63</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Без доллара</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>С долларом</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'This year'!$O$65:$P$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.9594249558343558E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4097520900457759E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D0E9-4341-8ACA-FEBEF9C6D33B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="976238063"/>
+        <c:axId val="976236815"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="976238063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="976236815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="976236815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="976238063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400"/>
+              <a:t>Прогноз следующего</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+              <a:t> года </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>MAPE)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Обучающая выборка (сред.)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>NextYear!$F$63:$G$63</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Без доллара</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>С долларом</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NextYear!$F$64:$G$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0063219175999294</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1484329386114183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBE5-4BD3-9E39-BB45D83E23F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Тестовая выборка (сред.)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>NextYear!$F$63:$G$63</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Без доллара</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>С долларом</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NextYear!$F$65:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.0803250309981398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1607641325395899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBE5-4BD3-9E39-BB45D83E23F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="976238063"/>
+        <c:axId val="976236815"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="976238063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="976236815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="976236815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="976238063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400"/>
+              <a:t>Прогноз следующего</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+              <a:t> года </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>MSE)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Обучающая выборка (сред.)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>NextYear!$O$63:$P$63</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Без доллара</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>С долларом</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NextYear!$O$64:$P$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.077633109209872E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2949821647087471E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46FF-40BA-8006-D44A9463D2F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Тестовая выборка (сред.)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>NextYear!$O$63:$P$63</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Без доллара</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>С долларом</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NextYear!$O$65:$P$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.6087655833538114E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6916805518296551E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-46FF-40BA-8006-D44A9463D2F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="976238063"/>
+        <c:axId val="976236815"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="976238063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="976236815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="976236815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="976238063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,17 +4719,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R57"/>
+  <dimension ref="B2:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="13" max="13" width="17.28515625" customWidth="1"/>
     <col min="14" max="14" width="16.7109375" customWidth="1"/>
@@ -2669,18 +6987,73 @@
         <v>9.4829231983438152E-4</v>
       </c>
     </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>15</v>
+      </c>
+      <c r="O63" t="s">
+        <v>14</v>
+      </c>
+      <c r="P63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1.1689923572027021</v>
+      </c>
+      <c r="H64" s="3">
+        <v>1.1540535729331971</v>
+      </c>
+      <c r="N64" t="s">
+        <v>12</v>
+      </c>
+      <c r="O64" s="4">
+        <v>1.0024922373465866E-3</v>
+      </c>
+      <c r="P64" s="4">
+        <v>9.3433744070495108E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="3">
+        <v>2.9724080693133152</v>
+      </c>
+      <c r="H65" s="3">
+        <v>2.9594252272796018</v>
+      </c>
+      <c r="N65" t="s">
+        <v>13</v>
+      </c>
+      <c r="O65" s="4">
+        <v>6.9594249558343558E-3</v>
+      </c>
+      <c r="P65" s="4">
+        <v>6.4097520900457759E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:T58"/>
+  <dimension ref="C3:T65"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="U47" sqref="U47"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="M74" sqref="M74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4945,7 +9318,62 @@
         <v>1.157187663638646E-3</v>
       </c>
     </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="O63" t="s">
+        <v>14</v>
+      </c>
+      <c r="P63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1.0063219175999294</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1.1484329386114183</v>
+      </c>
+      <c r="N64" t="s">
+        <v>12</v>
+      </c>
+      <c r="O64" s="4">
+        <v>1.077633109209872E-3</v>
+      </c>
+      <c r="P64" s="4">
+        <v>9.2949821647087471E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="3">
+        <v>3.0803250309981398</v>
+      </c>
+      <c r="G65" s="3">
+        <v>3.1607641325395899</v>
+      </c>
+      <c r="N65" t="s">
+        <v>13</v>
+      </c>
+      <c r="O65" s="4">
+        <v>7.6087655833538114E-3</v>
+      </c>
+      <c r="P65" s="4">
+        <v>6.6916805518296551E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/migforecasting/underground/test-6.xlsx
+++ b/migforecasting/underground/test-6.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="19">
   <si>
     <t>test size 20%</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>С долларом</t>
+  </si>
+  <si>
+    <t>test 20%</t>
+  </si>
+  <si>
+    <t>NN(64,64,64,64,1) (citiesdataset-NY-2.csv) - next year</t>
+  </si>
+  <si>
+    <t>NN(64,64,64,64,1) (citiesdataset-NYDcor-2.csv) - next year</t>
   </si>
 </sst>
 </file>
@@ -121,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -131,6 +140,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -195,7 +207,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -300,7 +311,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -421,7 +431,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -564,7 +573,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -676,7 +684,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -716,6 +723,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Обучающая выборка (сред.)</c:v>
+          </c:tx>
           <c:spPr>
             <a:pattFill prst="narHorz">
               <a:fgClr>
@@ -778,7 +788,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -834,6 +843,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Тестовая выборка (сред.)</c:v>
+          </c:tx>
           <c:spPr>
             <a:pattFill prst="narHorz">
               <a:fgClr>
@@ -896,7 +908,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1039,7 +1050,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4721,8 +4731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R65"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7050,10 +7060,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:T65"/>
+  <dimension ref="C3:AE65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="M74" sqref="M74"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7066,9 +7076,13 @@
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
     <col min="19" max="19" width="12.85546875" customWidth="1"/>
     <col min="20" max="20" width="12.28515625" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" customWidth="1"/>
+    <col min="30" max="30" width="13" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:31" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7081,8 +7095,14 @@
       <c r="S3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="Y3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
@@ -7099,8 +7119,14 @@
         <v>11</v>
       </c>
       <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>2</v>
@@ -7129,8 +7155,20 @@
       <c r="T5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="Y5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -7167,8 +7205,26 @@
       <c r="T6" s="4">
         <v>7.188589138175625E-3</v>
       </c>
-    </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>9.2046183543042614E-4</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>8.3932795195363705E-3</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>7.3633209115142541E-4</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>5.8519338878325836E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f>C6+1</f>
         <v>2</v>
@@ -7209,8 +7265,26 @@
       <c r="T7" s="4">
         <v>7.7804257062983216E-3</v>
       </c>
-    </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X7" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>4.6212361669082508E-4</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>7.6528724704759774E-3</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>7.9888231501011608E-4</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>6.8831400241856364E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" ref="C8:C55" si="0">C7+1</f>
         <v>3</v>
@@ -7251,8 +7325,26 @@
       <c r="T8" s="4">
         <v>6.6696856910028607E-3</v>
       </c>
-    </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X8" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>7.490812499387127E-4</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>1.124498069401093E-2</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>5.2847515663967891E-4</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>7.7988171750966069E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7293,8 +7385,26 @@
       <c r="T9" s="4">
         <v>5.9363055879915576E-3</v>
       </c>
-    </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X9" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>4.812933503987121E-4</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>6.8430562474151987E-3</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>7.3784660560717271E-4</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>8.3445463924505265E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7335,8 +7445,26 @@
       <c r="T10" s="4">
         <v>5.3224483331998909E-3</v>
       </c>
-    </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X10" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>6.8160087661717043E-4</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>6.8568495864527396E-3</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>6.7566018680901348E-4</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>6.7695682726361759E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7377,8 +7505,26 @@
       <c r="T11" s="4">
         <v>6.2013696772142551E-3</v>
       </c>
-    </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X11" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>1.014814980638644E-3</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>1.117754553937866E-2</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>7.4603137664475204E-4</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>5.2908399675477436E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7419,8 +7565,26 @@
       <c r="T12" s="4">
         <v>5.6543061741757593E-3</v>
       </c>
-    </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X12" s="2">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>1.2268214597950171E-3</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>7.4675544438988503E-3</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>7</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>8.5461614420526068E-4</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>7.5723420678569789E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7461,8 +7625,26 @@
       <c r="T13" s="4">
         <v>5.2400764157673483E-3</v>
       </c>
-    </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X13" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>3.4457929102472891E-4</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>6.6591300353251578E-3</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>8.0225781711322768E-4</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>6.5701747767989028E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7503,8 +7685,26 @@
       <c r="T14" s="4">
         <v>6.171111497584196E-3</v>
       </c>
-    </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X14" s="2">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>6.1613838624861134E-4</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>8.8318782515261658E-3</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>9</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>6.030543654711412E-4</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>6.4142820345973548E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7545,8 +7745,26 @@
       <c r="T15" s="4">
         <v>7.4878625358643144E-3</v>
       </c>
-    </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X15" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>2.8212759633885408E-4</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>1.256871074707251E-2</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>5.6667908344708545E-4</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>3.9588352293645664E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7587,8 +7805,26 @@
       <c r="T16" s="4">
         <v>6.3463839251047677E-3</v>
       </c>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X16" s="2">
+        <v>11</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>3.8192327472772489E-4</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>7.2203541455874024E-3</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>6.6231979516758984E-4</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>4.8058731150736039E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7629,8 +7865,26 @@
       <c r="T17" s="4">
         <v>6.0561760994672104E-3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X17" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>9.771344439018679E-4</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>7.9873452337947438E-3</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>12</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>1.3394902435832491E-3</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>6.73090900852737E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7671,8 +7925,26 @@
       <c r="T18" s="4">
         <v>8.9994365285987581E-3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X18" s="2">
+        <v>13</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>2.6288827336013411E-3</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>7.0475122901448211E-3</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>13</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>7.9983205533728911E-4</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>5.3456310515376474E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7713,8 +7985,26 @@
       <c r="T19" s="4">
         <v>6.2915048880807451E-3</v>
       </c>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X19" s="2">
+        <v>14</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>5.4026527000035189E-4</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>7.5757849929986828E-3</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>14</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>6.097937522010757E-4</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>7.2697126605409659E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7755,8 +8045,26 @@
       <c r="T20" s="4">
         <v>7.6209223236169401E-3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X20" s="2">
+        <v>15</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>4.8317013864743533E-4</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>1.0876356917816941E-2</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>15</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>7.7297783224082042E-4</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>4.8582432484114242E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7797,8 +8105,26 @@
       <c r="T21" s="4">
         <v>5.2901226478457297E-3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X21" s="2">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>4.0908375660599658E-4</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>9.4463593439375656E-3</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>16</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>4.7186448306659558E-4</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>5.6754989077258721E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7839,8 +8165,26 @@
       <c r="T22" s="4">
         <v>7.5334594583586524E-3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X22" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>3.0686784465563049E-4</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>8.3865697230411877E-3</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>17</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>5.4953746718818571E-4</v>
+      </c>
+      <c r="AE22" s="4">
+        <v>6.1779256644736878E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7881,8 +8225,26 @@
       <c r="T23" s="4">
         <v>8.506565276954637E-3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X23" s="2">
+        <v>18</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>1.420066395684231E-3</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>7.7057705457456611E-3</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>18</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>5.7602052353656035E-4</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>6.4564795371807437E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7923,8 +8285,26 @@
       <c r="T24" s="4">
         <v>6.0298183763753312E-3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X24" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>3.4848228971280963E-4</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>8.3972866565599196E-3</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>4.4829516185451181E-4</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>6.4220702589115842E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7965,8 +8345,26 @@
       <c r="T25" s="4">
         <v>5.0803260495208332E-3</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X25" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>5.6687513752917327E-4</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>5.651943738905452E-3</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>6.4915634877089857E-4</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>7.3691090975262627E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -8007,8 +8405,14 @@
       <c r="T26" s="4">
         <v>5.5998643233791251E-3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X26" s="2"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="5"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="5"/>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -8049,8 +8453,30 @@
       <c r="T27" s="4">
         <v>8.2932104694559815E-3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="4">
+        <f>AVERAGE(Y6:Y25)</f>
+        <v>7.4208969640941324E-4</v>
+      </c>
+      <c r="Z27" s="4">
+        <f>AVERAGE(Z6:Z25)</f>
+        <v>8.3995570561812474E-3</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD27" s="4">
+        <f>AVERAGE(AD6:AD25)</f>
+        <v>6.9645614025228236E-4</v>
+      </c>
+      <c r="AE27" s="4">
+        <f>AVERAGE(AE6:AE25)</f>
+        <v>6.3282966189138114E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -8091,8 +8517,30 @@
       <c r="T28" s="4">
         <v>6.1029082484710092E-3</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y28" s="4">
+        <f>_xlfn.STDEV.S(Y6:Y25)</f>
+        <v>5.4652125350068378E-4</v>
+      </c>
+      <c r="Z28" s="4">
+        <f>_xlfn.STDEV.S(Z6:Z25)</f>
+        <v>1.8059641235904174E-3</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD28" s="4">
+        <f>_xlfn.STDEV.S(AD6:AD25)</f>
+        <v>1.9135799773252029E-4</v>
+      </c>
+      <c r="AE28" s="4">
+        <f>_xlfn.STDEV.S(AE6:AE25)</f>
+        <v>1.1076645031534308E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -8134,7 +8582,7 @@
         <v>8.4186838127129366E-3</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -8176,7 +8624,7 @@
         <v>5.786722620280035E-3</v>
       </c>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -8218,7 +8666,7 @@
         <v>6.1600098031003641E-3</v>
       </c>
     </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>27</v>

--- a/migforecasting/underground/test-6.xlsx
+++ b/migforecasting/underground/test-6.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
   <si>
     <t>test size 20%</t>
   </si>
@@ -207,6 +207,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -311,6 +312,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -431,6 +433,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -573,6 +576,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -684,6 +688,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -788,6 +793,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -908,6 +914,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1050,6 +1057,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2094,6 +2102,489 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400"/>
+              <a:t>Прогноз следующего</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+              <a:t> года </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>NN)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>NextYear!$Z$63:$AA$63</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Без доллара</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>С долларом</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NextYear!$Z$64:$AA$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.4208969640941324E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9645614025228236E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DEB2-48CF-9F9F-388DA47BD2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>NextYear!$Z$63:$AA$63</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Без доллара</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>С долларом</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NextYear!$Z$65:$AA$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.3995570561812474E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3282966189138114E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DEB2-48CF-9F9F-388DA47BD2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="976238063"/>
+        <c:axId val="976236815"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="976238063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="976236815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="976236815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="976238063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2254,6 +2745,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
   <cs:axisTitle>
@@ -3812,6 +4343,525 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4458,6 +5508,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4731,7 +5813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R65"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
@@ -7062,8 +8144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AE65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+    <sheetView tabSelected="1" topLeftCell="L52" workbookViewId="0">
+      <selection activeCell="AD60" sqref="AD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9380,7 +10462,7 @@
         <v>7.3723734744607361E-3</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -9422,7 +10504,7 @@
         <v>8.3334529929859191E-3</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -9464,7 +10546,7 @@
         <v>8.5423827329833488E-3</v>
       </c>
     </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -9506,7 +10588,7 @@
         <v>8.553913185071366E-3</v>
       </c>
     </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -9548,7 +10630,7 @@
         <v>6.0856000631264243E-3</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -9590,7 +10672,7 @@
         <v>6.5573749879574636E-3</v>
       </c>
     </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -9632,7 +10714,7 @@
         <v>6.8350337523916133E-3</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -9674,7 +10756,7 @@
         <v>7.7414058846469657E-3</v>
       </c>
     </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>4</v>
       </c>
@@ -9720,7 +10802,7 @@
         <v>6.6916805518296551E-3</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
         <v>5</v>
       </c>
@@ -9766,7 +10848,7 @@
         <v>1.157187663638646E-3</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
         <v>14</v>
       </c>
@@ -9779,8 +10861,14 @@
       <c r="P63" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="Z63" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>12</v>
       </c>
@@ -9799,8 +10887,17 @@
       <c r="P64" s="4">
         <v>9.2949821647087471E-4</v>
       </c>
-    </row>
-    <row r="65" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Y64" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z64" s="4">
+        <v>7.4208969640941324E-4</v>
+      </c>
+      <c r="AA64" s="4">
+        <v>6.9645614025228236E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>13</v>
       </c>
@@ -9818,6 +10915,15 @@
       </c>
       <c r="P65" s="4">
         <v>6.6916805518296551E-3</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z65" s="4">
+        <v>8.3995570561812474E-3</v>
+      </c>
+      <c r="AA65" s="4">
+        <v>6.3282966189138114E-3</v>
       </c>
     </row>
   </sheetData>
